--- a/similarities/split_global/harmonic_similarity_timestamps_391.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_391.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'F#', 'B'], ['B', 'E', 'B', 'F#', 'B']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A'], ['A', 'D', 'A', 'E', 'A']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:31.259637', '0:02:37.900544'), ('0:00:01.421269', '0:00:43.252018')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:04.605000', '0:00:18.764000'), ('0:00:40.490000', '0:00:51.380000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>jaah_57</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A']]</t>
+          <t>['Gb', 'G:dim7', 'Db/5']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['Gb', 'E:dim7/b3', 'Db/5']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:20.410362', '0:00:24.856984')]</t>
+          <t>('0:02:36.770000', '0:02:37.870000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:25.390000', '0:00:37.670000')]</t>
+          <t>('0:00:29.809183', '0:00:34.104875')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-57#t=156.77</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=25.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=29.809183</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A', 'E', 'B:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:01:11.640000', '0:01:14.840000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
+          <t>('0:01:44.354195', '0:01:53.665396')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=71.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
+          <t>('0:01:00.436303', '0:01:14.066417')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
+          <t>('0:00:10.540000', '0:00:13.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=6.28']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
+          <t>('0:00:41.140000', '0:00:53.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:02.081000', '0:00:10.249000')]</t>
+          <t>('0:00:19.840000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=41.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=19.84</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C:min7', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:min7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:01:37.300000', '0:01:42.930000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
+          <t>('0:00:24.660000', '0:00:25.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=97.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=24.66</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.400000', '0:00:16.280000')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=10.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3', 'Db:min/b3', 'Ab']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['D:7', 'G:7', 'C', 'F:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:11.340000')]</t>
+          <t>('0:00:26.800000', '0:00:34.430000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:17.737518', '0:00:26.514661')]</t>
+          <t>('0:00:22.890000', '0:00:28.290000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=26.8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=22.89</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_98</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['C/3', 'F', 'C/3', 'F', 'C/5', 'F/3', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:04:32.560000', '0:04:34.520000')]</t>
+          <t>('0:00:37.331000', '0:00:49.319000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:33.340317', '0:00:56.455803')]</t>
+          <t>('0:02:13.449451', '0:02:18.803650')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=272.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=37.331</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=133.449451</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:20.220000', '0:00:25.620000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.619433', '0:00:16.956938')]</t>
+          <t>('0:00:02.734716', '0:00:06.740158')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=20.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=9.619433']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=2.734716</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:03:44.020000', '0:04:01.440000')]</t>
+          <t>('0:01:31.840000', '0:01:43.940000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
+          <t>('0:00:36.160000', '0:00:41.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=224.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=91.84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.36']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=36.16</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min7', 'C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['D:min7', 'G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:39.910000', '0:01:07.840000')]</t>
+          <t>('0:00:22.680000', '0:00:27')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:44.500000', '0:00:59.490000')]</t>
+          <t>('0:00:04.240000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=39.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=44.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.500000', '0:00:29.300000')]</t>
+          <t>('0:01:04.400000', '0:01:07.540000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:54.380000', '0:00:58.560000')]</t>
+          <t>('0:00:28.300000', '0:00:38.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=22.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=64.4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=54.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=28.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
